--- a/Lab4/Книга1.xlsx
+++ b/Lab4/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zhuri\Desktop\Документы от вуза\4_Для учебы\5 cем\Тестирование и отладка программного обеспечения\Лабы\AllLabs\Lab4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ABF6DF9-5696-47D8-9536-95EF93AAF857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{846E3656-DF45-40D6-AD3B-7A10079C69D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-210" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{7C63F74E-E3BF-4476-8420-7C5CA5A32502}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{7C63F74E-E3BF-4476-8420-7C5CA5A32502}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="69">
   <si>
     <t>ID</t>
   </si>
@@ -229,29 +229,65 @@
     <t>Программа сообщила, что дискрименант меньше 0</t>
   </si>
   <si>
-    <t>Файлы, содержащие в себе 3 коэффициента квадратного уравнения</t>
-  </si>
-  <si>
-    <t>Файлы, содержащие в себе 3 коэфициента квадратного уравнения</t>
-  </si>
-  <si>
-    <t>Файлы, с коэфициентами, которые дают D&gt;0</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1) Запустить программу LabLec2 2) Ввести путь до файла</t>
-  </si>
-  <si>
-    <t>Файлы, с коэфициентами, которые дают D=0</t>
-  </si>
-  <si>
-    <t>Файлы, с коэфициентами, которые дают D&lt;0</t>
+    <t>Файл существует</t>
+  </si>
+  <si>
+    <t>Asserts.True</t>
+  </si>
+  <si>
+    <t>1) Ввести входной параметр</t>
+  </si>
+  <si>
+    <t>Файл не существует</t>
+  </si>
+  <si>
+    <t>Битый путь к файлу</t>
+  </si>
+  <si>
+    <t>Assert.False</t>
+  </si>
+  <si>
+    <t>Парсинг прошел успешно</t>
+  </si>
+  <si>
+    <t>Assert.True</t>
+  </si>
+  <si>
+    <t>Программа сообщит что не удалось парсировать параметры</t>
+  </si>
+  <si>
+    <t>Параметры квадратного уравнения, которые дают D&gt;0</t>
+  </si>
+  <si>
+    <t>Программа выведет 2 корня уравнения</t>
+  </si>
+  <si>
+    <t>Параметры квадратного уравнения, которые дают D=0</t>
+  </si>
+  <si>
+    <t>Программа сообщит, что дискрименант равен 0 и выведет 1 корень</t>
+  </si>
+  <si>
+    <t>Параметры квадратного уравнения, которые дают D&lt;0</t>
+  </si>
+  <si>
+    <t>строки с параметрами</t>
+  </si>
+  <si>
+    <t>строки с некорректными параметрами</t>
+  </si>
+  <si>
+    <t>Передать строки методу для парсинга</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Подгрузить параметры квадратного уравнения</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +323,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -344,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -365,6 +408,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -380,10 +426,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -685,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BFDBC96-21E0-4EA9-A90C-C21E1B5B96F6}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1011,8 +1053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DBCED1F-F3E5-4E53-A33A-51BAC22A9DF7}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1075,13 +1117,13 @@
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2">
         <v>45252</v>
@@ -1104,16 +1146,16 @@
         <v>35</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="H3" s="6">
         <v>45252</v>
@@ -1136,16 +1178,16 @@
         <v>36</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2">
         <v>45252</v>
@@ -1168,16 +1210,16 @@
         <v>37</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H5" s="6">
         <v>45252</v>
@@ -1200,16 +1242,16 @@
         <v>41</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>61</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="H6" s="2">
         <v>45252</v>
@@ -1232,16 +1274,16 @@
         <v>44</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>58</v>
       </c>
       <c r="H7" s="6">
         <v>45252</v>
@@ -1264,16 +1306,16 @@
         <v>45</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>48</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H8" s="6">
         <v>45252</v>
@@ -1329,6 +1371,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>